--- a/docs/StructureDefinition-virginia-consent-profile.xlsx
+++ b/docs/StructureDefinition-virginia-consent-profile.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T16:51:20-06:00</t>
+    <t>2025-01-01T21:35:28-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-virginia-consent-profile.xlsx
+++ b/docs/StructureDefinition-virginia-consent-profile.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.4</t>
+    <t>0.6.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-01T21:35:28-07:00</t>
+    <t>2025-01-01T22:24:49-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-virginia-consent-profile.xlsx
+++ b/docs/StructureDefinition-virginia-consent-profile.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.5</t>
+    <t>0.6.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-01T22:24:49-07:00</t>
+    <t>2025-03-01T21:28:29-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-virginia-consent-profile.xlsx
+++ b/docs/StructureDefinition-virginia-consent-profile.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.6</t>
+    <t>0.6.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-01T21:28:29-06:00</t>
+    <t>2025-03-04T10:21:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
